--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV003-001 until DPLKINV003-003- Setup Portofolio Investasi - Approve Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV003-001 until DPLKINV003-003- Setup Portofolio Investasi - Approve Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FA9A0A-9D72-4FDF-B539-C175C97B915F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C59B1E-6D8C-4435-986E-C4611C7547EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKINV003-001" sheetId="2" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADF346F-FBD7-4B7B-9BBA-92FDAD3E0D22}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB69EE44-4DC9-4251-9166-BC08E4C4BA88}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
